--- a/Lab4/ГрафикХэш.xlsx
+++ b/Lab4/ГрафикХэш.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studies\1 course\2 semester\Algorithms and data structures\Lab4\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A33779B-5F0C-4A6E-A0BF-86564DF7102A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79008C13-4E90-417B-B3B9-2F697B9009DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C515DBCD-DF39-4A03-8919-882066BA4219}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>порог</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>0.4</t>
+  </si>
+  <si>
+    <t>метод цепочек</t>
   </si>
 </sst>
 </file>
@@ -699,6 +702,88 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C876-4C53-B924-0D7F77C7C948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>цепочки</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$37:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4556E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5288999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2142999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5414000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0083999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6033700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8116100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24318509999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7327108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8170959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B69B-4DA2-84F6-E2E83FB47967}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1785,13 +1870,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C43EB00-C892-4B33-B1AE-BBDD5FF9A624}">
-  <dimension ref="B1:L7"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1">
@@ -2036,6 +2124,73 @@
       </c>
       <c r="L7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+      <c r="D36">
+        <v>400</v>
+      </c>
+      <c r="E36">
+        <v>800</v>
+      </c>
+      <c r="F36">
+        <v>1600</v>
+      </c>
+      <c r="G36">
+        <v>3200</v>
+      </c>
+      <c r="H36">
+        <v>6400</v>
+      </c>
+      <c r="I36">
+        <v>12800</v>
+      </c>
+      <c r="J36">
+        <v>25600</v>
+      </c>
+      <c r="K36">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1.4556E-3</v>
+      </c>
+      <c r="C37">
+        <v>1.5288999999999999E-3</v>
+      </c>
+      <c r="D37">
+        <v>5.2142999999999998E-3</v>
+      </c>
+      <c r="E37">
+        <v>5.5414000000000001E-3</v>
+      </c>
+      <c r="F37">
+        <v>9.0083999999999997E-3</v>
+      </c>
+      <c r="G37">
+        <v>1.6033700000000001E-2</v>
+      </c>
+      <c r="H37">
+        <v>4.8116100000000002E-2</v>
+      </c>
+      <c r="I37">
+        <v>0.24318509999999999</v>
+      </c>
+      <c r="J37">
+        <v>0.7327108</v>
+      </c>
+      <c r="K37">
+        <v>2.8170959</v>
       </c>
     </row>
   </sheetData>
